--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Represents the overall structure of the program and the initial capture of patient demographcis and key identifiers.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -628,39 +631,41 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -668,26 +673,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -745,112 +750,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -866,10 +871,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -881,13 +886,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -938,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
@@ -955,10 +960,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -966,10 +971,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -981,13 +986,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1038,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1055,10 +1060,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1066,10 +1071,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1081,7 +1086,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1134,13 +1139,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1151,10 +1156,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1162,10 +1167,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1177,13 +1182,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1234,13 +1239,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1251,10 +1256,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1262,10 +1267,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1277,13 +1282,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1334,13 +1339,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1351,10 +1356,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1362,10 +1367,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1377,13 +1382,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1434,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1451,10 +1456,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1462,10 +1467,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1477,13 +1482,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1534,13 +1539,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1551,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1562,10 +1567,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1577,13 +1582,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1610,11 +1615,11 @@
         <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>20</v>
@@ -1632,13 +1637,13 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1649,10 +1654,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1660,10 +1665,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1675,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1732,13 +1737,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -1749,10 +1754,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1760,10 +1765,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1775,13 +1780,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1832,13 +1837,13 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -1849,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1860,10 +1865,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -1875,13 +1880,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1908,11 +1913,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -1930,13 +1935,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -1947,10 +1952,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1958,10 +1963,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -1973,13 +1978,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2030,13 +2035,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2047,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2058,10 +2063,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2073,13 +2078,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2130,13 +2135,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2147,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2158,10 +2163,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2173,13 +2178,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2230,13 +2235,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2247,10 +2252,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2258,10 +2263,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2273,13 +2278,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2330,13 +2335,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2347,10 +2352,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2358,10 +2363,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2373,13 +2378,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2430,13 +2435,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2447,10 +2452,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2458,10 +2463,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2473,13 +2478,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2530,13 +2535,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2547,10 +2552,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2558,10 +2563,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2573,13 +2578,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2630,13 +2635,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -2647,10 +2652,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2658,10 +2663,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -2673,13 +2678,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2730,13 +2735,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,7 +304,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
+    <t>http://example.org/ValueSet/RRTGENSexVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>
@@ -329,7 +329,7 @@
     <t>Foreign-born</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.administrativeAreaOfResidence</t>
@@ -736,7 +736,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,7 +304,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/RRTGENSexVS</t>
+    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>
@@ -329,7 +329,7 @@
     <t>Foreign-born</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
+    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
   </si>
   <si>
     <t>TBCaseSurveillance.administrativeAreaOfResidence</t>
@@ -736,7 +736,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,7 +304,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/rrt---gen---sex-vs</t>
+    <t>http://example.org/ValueSet/RRTGENSexVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.dateOfBirthIsEstimated</t>
@@ -329,7 +329,7 @@
     <t>Foreign-born</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/gen---yes-no-unknown-vs</t>
+    <t>http://example.org/ValueSet/GENYesNoUnknownVS</t>
   </si>
   <si>
     <t>TBCaseSurveillance.administrativeAreaOfResidence</t>
@@ -736,7 +736,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,6 +260,9 @@
     <t>TBCaseSurveillance.incidentDate</t>
   </si>
   <si>
+    <t>Incident date</t>
+  </si>
+  <si>
     <t>TBCaseSurveillance.nationalId</t>
   </si>
   <si>
@@ -267,10 +270,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">National unique identifier assigned to the client, if used in the country </t>
-  </si>
-  <si>
-    <t>National unique identifier assigned to the client, if used in the country</t>
+    <t>National unique identifier assigned to the client, if used in the country.</t>
   </si>
   <si>
     <t>TBCaseSurveillance.tbRegistrationNumber</t>
@@ -1088,8 +1088,12 @@
       <c r="K4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1156,10 +1160,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1182,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>84</v>
@@ -1239,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1282,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>86</v>
@@ -1382,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>88</v>
@@ -1482,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>90</v>
@@ -1978,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>105</v>
@@ -2078,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>107</v>
@@ -2178,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>109</v>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBCaseSurveillance.xlsx
+++ b/StructureDefinition-TBCaseSurveillance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
